--- a/FPY_Follow_Up.xlsx
+++ b/FPY_Follow_Up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F6CAF02\Desktop\Automation\FPY_Follow_Up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E5088D-D3A7-4E34-B9A0-1F622BF32B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E8D66-EA01-4B23-9137-0532AAF605AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
   <si>
     <t>W11</t>
   </si>
@@ -108,6 +108,57 @@
     <t>W35</t>
   </si>
   <si>
+    <t>W36</t>
+  </si>
+  <si>
+    <t>W37</t>
+  </si>
+  <si>
+    <t>W38</t>
+  </si>
+  <si>
+    <t>W39</t>
+  </si>
+  <si>
+    <t>W40</t>
+  </si>
+  <si>
+    <t>W41</t>
+  </si>
+  <si>
+    <t>W42</t>
+  </si>
+  <si>
+    <t>W43</t>
+  </si>
+  <si>
+    <t>W44</t>
+  </si>
+  <si>
+    <t>W45</t>
+  </si>
+  <si>
+    <t>W46</t>
+  </si>
+  <si>
+    <t>W47</t>
+  </si>
+  <si>
+    <t>W48</t>
+  </si>
+  <si>
+    <t>W49</t>
+  </si>
+  <si>
+    <t>W50</t>
+  </si>
+  <si>
+    <t>W51</t>
+  </si>
+  <si>
+    <t>W52</t>
+  </si>
+  <si>
     <t>ADAeX</t>
   </si>
   <si>
@@ -255,16 +306,16 @@
     <t>61000160_01</t>
   </si>
   <si>
-    <t>15 997</t>
-  </si>
-  <si>
-    <t>11 794</t>
-  </si>
-  <si>
-    <t>1 673</t>
-  </si>
-  <si>
-    <t>2 530</t>
+    <t>14 068</t>
+  </si>
+  <si>
+    <t>10 736</t>
+  </si>
+  <si>
+    <t>1 506</t>
+  </si>
+  <si>
+    <t>1 826</t>
   </si>
   <si>
     <t>RUNIN_0-CH2</t>
@@ -273,16 +324,16 @@
     <t>61000160_02</t>
   </si>
   <si>
-    <t>5 575</t>
-  </si>
-  <si>
-    <t>2 526</t>
-  </si>
-  <si>
-    <t>1 535</t>
-  </si>
-  <si>
-    <t>1 514</t>
+    <t>4 952</t>
+  </si>
+  <si>
+    <t>2 807</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>1 186</t>
   </si>
   <si>
     <t>RUNIN_1-CH1</t>
@@ -297,16 +348,16 @@
     <t>61000161_02</t>
   </si>
   <si>
-    <t>15 816</t>
-  </si>
-  <si>
-    <t>8 671</t>
-  </si>
-  <si>
-    <t>5 682</t>
-  </si>
-  <si>
-    <t>1 463</t>
+    <t>14 686</t>
+  </si>
+  <si>
+    <t>7 630</t>
+  </si>
+  <si>
+    <t>5 218</t>
+  </si>
+  <si>
+    <t>1 838</t>
   </si>
   <si>
     <t>RUNIN_2-CH1</t>
@@ -315,16 +366,16 @@
     <t>61000162_01</t>
   </si>
   <si>
-    <t>13 171</t>
-  </si>
-  <si>
-    <t>8 394</t>
-  </si>
-  <si>
-    <t>2 940</t>
-  </si>
-  <si>
-    <t>1 837</t>
+    <t>11 995</t>
+  </si>
+  <si>
+    <t>7 414</t>
+  </si>
+  <si>
+    <t>2 493</t>
+  </si>
+  <si>
+    <t>2 088</t>
   </si>
   <si>
     <t>RUNIN_2-CH2</t>
@@ -333,13 +384,16 @@
     <t>61000162_02</t>
   </si>
   <si>
-    <t>8 700</t>
-  </si>
-  <si>
-    <t>6 092</t>
-  </si>
-  <si>
-    <t>1 609</t>
+    <t>5 928</t>
+  </si>
+  <si>
+    <t>3 913</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>1 259</t>
   </si>
   <si>
     <t>RUNIN_3-CH1</t>
@@ -348,16 +402,16 @@
     <t>61000163_01</t>
   </si>
   <si>
-    <t>15 839</t>
-  </si>
-  <si>
-    <t>12 177</t>
-  </si>
-  <si>
-    <t>1 942</t>
-  </si>
-  <si>
-    <t>1 720</t>
+    <t>15 553</t>
+  </si>
+  <si>
+    <t>12 246</t>
+  </si>
+  <si>
+    <t>1 636</t>
+  </si>
+  <si>
+    <t>1 671</t>
   </si>
   <si>
     <t>RUNIN_3-CH2</t>
@@ -366,16 +420,16 @@
     <t>61000163_02</t>
   </si>
   <si>
-    <t>13 187</t>
-  </si>
-  <si>
-    <t>9 509</t>
-  </si>
-  <si>
-    <t>1 865</t>
-  </si>
-  <si>
-    <t>1 813</t>
+    <t>13 150</t>
+  </si>
+  <si>
+    <t>10 232</t>
+  </si>
+  <si>
+    <t>1 324</t>
+  </si>
+  <si>
+    <t>1 594</t>
   </si>
   <si>
     <t>RUNIN_4-CH1</t>
@@ -384,13 +438,16 @@
     <t>61000164_01</t>
   </si>
   <si>
-    <t>6 309</t>
-  </si>
-  <si>
-    <t>4 506</t>
-  </si>
-  <si>
-    <t>1 501</t>
+    <t>7 053</t>
+  </si>
+  <si>
+    <t>5 262</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>1 181</t>
   </si>
   <si>
     <t>RUNIN_4-CH2</t>
@@ -445,57 +502,6 @@
   </si>
   <si>
     <t>61040701_02</t>
-  </si>
-  <si>
-    <t>W36</t>
-  </si>
-  <si>
-    <t>W37</t>
-  </si>
-  <si>
-    <t>W38</t>
-  </si>
-  <si>
-    <t>W39</t>
-  </si>
-  <si>
-    <t>W40</t>
-  </si>
-  <si>
-    <t>W41</t>
-  </si>
-  <si>
-    <t>W42</t>
-  </si>
-  <si>
-    <t>W43</t>
-  </si>
-  <si>
-    <t>W44</t>
-  </si>
-  <si>
-    <t>W45</t>
-  </si>
-  <si>
-    <t>W46</t>
-  </si>
-  <si>
-    <t>W47</t>
-  </si>
-  <si>
-    <t>W48</t>
-  </si>
-  <si>
-    <t>W49</t>
-  </si>
-  <si>
-    <t>W50</t>
-  </si>
-  <si>
-    <t>W51</t>
-  </si>
-  <si>
-    <t>W52</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,12 +595,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1233,7 +1233,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="35"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1323,28 +1323,14 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="21" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1376,6 +1362,17 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="19" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2557,9 +2554,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FPY!$D$2:$R$2</c:f>
+              <c:f>FPY!$D$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>W11</c:v>
                 </c:pt>
@@ -2604,16 +2601,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>W25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>W26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FPY!$D$3:$R$3</c:f>
+              <c:f>FPY!$D$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.93528509206097799</c:v>
                 </c:pt>
@@ -2658,6 +2658,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.93171458734397317</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93599949615820632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,7 +2668,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0802-48FA-AD30-C43094223AE5}"/>
+              <c16:uniqueId val="{00000000-2A3E-4E8A-B744-7CFD2EB2B4FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2751,9 +2754,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FPY!$D$2:$R$2</c:f>
+              <c:f>FPY!$D$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>W11</c:v>
                 </c:pt>
@@ -2798,16 +2801,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>W25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>W26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FPY!$D$4:$R$4</c:f>
+              <c:f>FPY!$D$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.93151591345199503</c:v>
                 </c:pt>
@@ -2852,6 +2858,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.92099464903997486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93106647253610952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2859,7 +2868,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0802-48FA-AD30-C43094223AE5}"/>
+              <c16:uniqueId val="{00000001-2A3E-4E8A-B744-7CFD2EB2B4FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2945,9 +2954,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FPY!$D$2:$R$2</c:f>
+              <c:f>FPY!$D$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>W11</c:v>
                 </c:pt>
@@ -2992,16 +3001,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>W25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>W26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FPY!$D$5:$R$5</c:f>
+              <c:f>FPY!$D$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.83119897287332101</c:v>
                 </c:pt>
@@ -3046,6 +3058,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.82711222811753393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83060499375375185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3053,7 +3068,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0802-48FA-AD30-C43094223AE5}"/>
+              <c16:uniqueId val="{00000002-2A3E-4E8A-B744-7CFD2EB2B4FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3139,9 +3154,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FPY!$D$2:$R$2</c:f>
+              <c:f>FPY!$D$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>W11</c:v>
                 </c:pt>
@@ -3186,16 +3201,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>W25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>W26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FPY!$D$6:$R$6</c:f>
+              <c:f>FPY!$D$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="6" formatCode="0.0%">
                   <c:v>0.999</c:v>
                 </c:pt>
@@ -3222,6 +3240,9 @@
                 </c:pt>
                 <c:pt idx="14" formatCode="0.0%">
                   <c:v>0.99634638255091157</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0%">
+                  <c:v>0.99698746657215587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3229,7 +3250,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0802-48FA-AD30-C43094223AE5}"/>
+              <c16:uniqueId val="{00000003-2A3E-4E8A-B744-7CFD2EB2B4FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3315,9 +3336,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FPY!$D$2:$R$2</c:f>
+              <c:f>FPY!$D$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>W11</c:v>
                 </c:pt>
@@ -3362,16 +3383,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>W25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>W26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FPY!$D$7:$R$7</c:f>
+              <c:f>FPY!$D$7:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.90088665674603097</c:v>
                 </c:pt>
@@ -3416,6 +3440,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.90381979062811568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89875245697781703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,7 +3450,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0802-48FA-AD30-C43094223AE5}"/>
+              <c16:uniqueId val="{00000004-2A3E-4E8A-B744-7CFD2EB2B4FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3509,9 +3536,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FPY!$D$2:$R$2</c:f>
+              <c:f>FPY!$D$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>W11</c:v>
                 </c:pt>
@@ -3556,16 +3583,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>W25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>W26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FPY!$D$8:$R$8</c:f>
+              <c:f>FPY!$D$8:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.95895096921322598</c:v>
                 </c:pt>
@@ -3610,6 +3640,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.95649473753023473</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9608328179756751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,7 +3650,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0802-48FA-AD30-C43094223AE5}"/>
+              <c16:uniqueId val="{00000005-2A3E-4E8A-B744-7CFD2EB2B4FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4149,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS66"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:K51"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,63 +4272,63 @@
         <v>24</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
-        <v>25</v>
+      <c r="B3" s="88" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D3" s="45">
         <v>0.93528509206097799</v>
@@ -4342,7 +4375,9 @@
       <c r="R3" s="39">
         <v>0.93171458734397317</v>
       </c>
-      <c r="S3" s="39"/>
+      <c r="S3" s="39">
+        <v>0.93599949615820632</v>
+      </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
@@ -4371,9 +4406,9 @@
       <c r="AS3" s="25"/>
     </row>
     <row r="4" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="74"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D4" s="47">
         <v>0.93151591345199503</v>
@@ -4420,7 +4455,9 @@
       <c r="R4" s="40">
         <v>0.92099464903997486</v>
       </c>
-      <c r="S4" s="40"/>
+      <c r="S4" s="40">
+        <v>0.93106647253610952</v>
+      </c>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
@@ -4449,9 +4486,9 @@
       <c r="AS4" s="24"/>
     </row>
     <row r="5" spans="2:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="74"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D5" s="47">
         <v>0.83119897287332101</v>
@@ -4498,7 +4535,9 @@
       <c r="R5" s="40">
         <v>0.82711222811753393</v>
       </c>
-      <c r="S5" s="40"/>
+      <c r="S5" s="40">
+        <v>0.83060499375375185</v>
+      </c>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
@@ -4527,9 +4566,9 @@
       <c r="AS5" s="24"/>
     </row>
     <row r="6" spans="2:45" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="50"/>
@@ -4564,7 +4603,9 @@
       <c r="R6" s="54">
         <v>0.99634638255091157</v>
       </c>
-      <c r="S6" s="54"/>
+      <c r="S6" s="54">
+        <v>0.99698746657215587</v>
+      </c>
       <c r="T6" s="55"/>
       <c r="U6" s="55"/>
       <c r="V6" s="55"/>
@@ -4593,11 +4634,11 @@
       <c r="AS6" s="55"/>
     </row>
     <row r="7" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76" t="s">
-        <v>30</v>
+      <c r="B7" s="89" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D7" s="45">
         <v>0.90088665674603097</v>
@@ -4644,7 +4685,9 @@
       <c r="R7" s="39">
         <v>0.90381979062811568</v>
       </c>
-      <c r="S7" s="39"/>
+      <c r="S7" s="39">
+        <v>0.89875245697781703</v>
+      </c>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
@@ -4673,9 +4716,9 @@
       <c r="AS7" s="25"/>
     </row>
     <row r="8" spans="2:45" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="75"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D8" s="51">
         <v>0.95895096921322598</v>
@@ -4722,7 +4765,9 @@
       <c r="R8" s="41">
         <v>0.95649473753023473</v>
       </c>
-      <c r="S8" s="41"/>
+      <c r="S8" s="41">
+        <v>0.9608328179756751</v>
+      </c>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
@@ -4753,135 +4798,135 @@
     <row r="11" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="16" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="73" t="s">
-        <v>25</v>
+      <c r="B13" s="88" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4">
-        <v>80515</v>
+        <v>79390</v>
       </c>
       <c r="E13" s="5">
-        <v>75017</v>
+        <v>74309</v>
       </c>
       <c r="F13" s="39">
-        <v>0.93171458734397317</v>
-      </c>
-      <c r="G13" s="77">
+        <v>0.93599949615820632</v>
+      </c>
+      <c r="G13" s="85">
         <f>AVERAGE(F13:F16)</f>
-        <v>0.91904196176309827</v>
-      </c>
-      <c r="H13" s="77">
+        <v>0.92366460725505584</v>
+      </c>
+      <c r="H13" s="85">
         <f>AVERAGE(F13:F18)</f>
-        <v>0.92274706253512384</v>
+        <v>0.92570728399561941</v>
       </c>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B14" s="74"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6">
-        <v>82602</v>
+        <v>77611</v>
       </c>
       <c r="E14" s="3">
-        <v>76076</v>
+        <v>72261</v>
       </c>
       <c r="F14" s="40">
-        <v>0.92099464903997486</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
+        <v>0.93106647253610952</v>
+      </c>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B15" s="74"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6">
-        <v>64458</v>
+        <v>61637</v>
       </c>
       <c r="E15" s="3">
-        <v>53314</v>
+        <v>51196</v>
       </c>
       <c r="F15" s="40">
-        <v>0.82711222811753393</v>
-      </c>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
+        <v>0.83060499375375185</v>
+      </c>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
     </row>
     <row r="16" spans="2:45" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="75"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="13" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D16" s="9">
-        <v>81563</v>
+        <v>62074</v>
       </c>
       <c r="E16" s="10">
-        <v>81265</v>
+        <v>61887</v>
       </c>
       <c r="F16" s="54">
-        <v>0.99634638255091157</v>
-      </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="74"/>
+        <v>0.99698746657215587</v>
+      </c>
+      <c r="G16" s="87"/>
+      <c r="H16" s="86"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="76" t="s">
-        <v>30</v>
+      <c r="B17" s="89" t="s">
+        <v>47</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4">
-        <v>32096</v>
+        <v>24929</v>
       </c>
       <c r="E17" s="5">
-        <v>29009</v>
+        <v>22405</v>
       </c>
       <c r="F17" s="39">
-        <v>0.90381979062811568</v>
-      </c>
-      <c r="G17" s="77">
+        <v>0.89875245697781703</v>
+      </c>
+      <c r="G17" s="85">
         <f>AVERAGE(F17:F18)</f>
-        <v>0.93015726407917521</v>
-      </c>
-      <c r="H17" s="74"/>
+        <v>0.92979263747674601</v>
+      </c>
+      <c r="H17" s="86"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="75"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="15" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7">
-        <v>30594</v>
+        <v>24255</v>
       </c>
       <c r="E18" s="8">
-        <v>29263</v>
+        <v>23305</v>
       </c>
       <c r="F18" s="41">
-        <v>0.95649473753023473</v>
-      </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
+        <v>0.9608328179756751</v>
+      </c>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F19" s="53"/>
@@ -4889,98 +4934,98 @@
     <row r="21" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4">
-        <v>13524</v>
+        <v>7815</v>
       </c>
       <c r="E23" s="5">
-        <v>12713</v>
+        <v>7424</v>
       </c>
       <c r="F23" s="39">
-        <v>0.94003253475303161</v>
+        <v>0.94996801023672428</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D24" s="6">
-        <v>14529</v>
+        <v>17193</v>
       </c>
       <c r="E24" s="3">
-        <v>13958</v>
+        <v>16484</v>
       </c>
       <c r="F24" s="40">
-        <v>0.96069929107302632</v>
+        <v>0.95876228697725818</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D25" s="6">
-        <v>19485</v>
+        <v>19083</v>
       </c>
       <c r="E25" s="3">
-        <v>17447</v>
+        <v>17452</v>
       </c>
       <c r="F25" s="40">
-        <v>0.89540672312034897</v>
+        <v>0.91453125818791592</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D26" s="6">
-        <v>18640</v>
+        <v>20200</v>
       </c>
       <c r="E26" s="3">
-        <v>17722</v>
+        <v>19190</v>
       </c>
       <c r="F26" s="40">
-        <v>0.9507510729613734</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7">
-        <v>14337</v>
+        <v>15099</v>
       </c>
       <c r="E27" s="8">
-        <v>13177</v>
+        <v>13759</v>
       </c>
       <c r="F27" s="41">
-        <v>0.91909046522982496</v>
+        <v>0.91125240082124648</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4989,183 +5034,183 @@
     <row r="29" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="22"/>
       <c r="D29" s="19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D30" s="4">
-        <v>8280</v>
+        <v>8346</v>
       </c>
       <c r="E30" s="5">
-        <v>7501</v>
+        <v>7703</v>
       </c>
       <c r="F30" s="39">
-        <v>0.90591787439613525</v>
+        <v>0.92295710520009588</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D31" s="6">
-        <v>8787</v>
+        <v>8598</v>
       </c>
       <c r="E31" s="3">
-        <v>8123</v>
+        <v>7785</v>
       </c>
       <c r="F31" s="40">
-        <v>0.92443382269261409</v>
+        <v>0.90544312630844381</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D32" s="6">
-        <v>8356</v>
+        <v>8517</v>
       </c>
       <c r="E32" s="3">
-        <v>7320</v>
+        <v>7975</v>
       </c>
       <c r="F32" s="40">
-        <v>0.87601723312589752</v>
+        <v>0.93636256897968773</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D33" s="6">
-        <v>8529</v>
+        <v>7143</v>
       </c>
       <c r="E33" s="3">
-        <v>8059</v>
+        <v>6784</v>
       </c>
       <c r="F33" s="40">
-        <v>0.94489389142924141</v>
+        <v>0.94974100517989635</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="29" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D34" s="6">
-        <v>8658</v>
+        <v>8140</v>
       </c>
       <c r="E34" s="3">
-        <v>7990</v>
+        <v>7627</v>
       </c>
       <c r="F34" s="40">
-        <v>0.92284592284592282</v>
+        <v>0.93697788697788698</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D35" s="6">
-        <v>8504</v>
+        <v>8083</v>
       </c>
       <c r="E35" s="3">
-        <v>7941</v>
+        <v>7688</v>
       </c>
       <c r="F35" s="40">
-        <v>0.93379586077140164</v>
+        <v>0.9511320054435235</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="29" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D36" s="6">
-        <v>7912</v>
+        <v>6892</v>
       </c>
       <c r="E36" s="3">
-        <v>7381</v>
+        <v>6483</v>
       </c>
       <c r="F36" s="40">
-        <v>0.93288675429726997</v>
+        <v>0.9406558328496808</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="29" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D37" s="6">
-        <v>7857</v>
+        <v>7853</v>
       </c>
       <c r="E37" s="3">
-        <v>7190</v>
+        <v>7201</v>
       </c>
       <c r="F37" s="40">
-        <v>0.91510754740995293</v>
+        <v>0.91697440468610725</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="29" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D38" s="6">
-        <v>7671</v>
+        <v>6852</v>
       </c>
       <c r="E38" s="3">
-        <v>7438</v>
+        <v>6663</v>
       </c>
       <c r="F38" s="40">
-        <v>0.96962586364228909</v>
+        <v>0.97241681260945712</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="D39" s="7">
-        <v>8048</v>
+        <v>7187</v>
       </c>
       <c r="E39" s="8">
-        <v>7133</v>
+        <v>6352</v>
       </c>
       <c r="F39" s="41">
-        <v>0.88630715705765406</v>
+        <v>0.88381800473076388</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5174,321 +5219,321 @@
     <row r="41" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
       <c r="D41" s="19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J41" s="60" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K41" s="69" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L41" s="70" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="M41" s="71" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="N41" s="72" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="33" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4">
-        <v>11341</v>
+        <v>10642</v>
       </c>
       <c r="E42" s="5">
-        <v>10467</v>
+        <v>9471</v>
       </c>
       <c r="F42" s="39">
-        <v>0.92293448549510626</v>
+        <v>0.88996429242623565</v>
       </c>
       <c r="J42" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="K42" s="88" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="M42" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="N42" s="82" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="K42" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="M42" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="N42" s="76" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="35" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D43" s="6">
-        <v>2869</v>
+        <v>3183</v>
       </c>
       <c r="E43" s="3">
-        <v>1844</v>
+        <v>2463</v>
       </c>
       <c r="F43" s="40">
-        <v>0.64273265946322755</v>
+        <v>0.77379830348727618</v>
       </c>
       <c r="J43" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="K43" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="L43" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="M43" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="N43" s="83" t="s">
-        <v>83</v>
+        <v>96</v>
+      </c>
+      <c r="K43" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="L43" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="N43" s="77" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="35" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="3"/>
       <c r="F44" s="40"/>
       <c r="J44" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44" s="89"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="83"/>
+        <v>102</v>
+      </c>
+      <c r="K44" s="83"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="77"/>
     </row>
     <row r="45" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="35" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D45" s="6">
-        <v>11670</v>
+        <v>10293</v>
       </c>
       <c r="E45" s="3">
-        <v>7363</v>
+        <v>6337</v>
       </c>
       <c r="F45" s="40">
-        <v>0.6309340188517566</v>
+        <v>0.61566112892256875</v>
       </c>
       <c r="J45" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="L45" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="M45" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="N45" s="83" t="s">
-        <v>91</v>
+        <v>104</v>
+      </c>
+      <c r="K45" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="L45" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="M45" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="N45" s="77" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D46" s="6">
-        <v>8375</v>
+        <v>7846</v>
       </c>
       <c r="E46" s="3">
-        <v>6656</v>
+        <v>6147</v>
       </c>
       <c r="F46" s="40">
-        <v>0.79474626865671638</v>
+        <v>0.78345653836349738</v>
       </c>
       <c r="J46" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="K46" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="L46" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="M46" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="N46" s="83" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="K46" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="M46" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" s="77" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="35" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D47" s="6">
-        <v>6200</v>
+        <v>4075</v>
       </c>
       <c r="E47" s="3">
-        <v>5540</v>
+        <v>3466</v>
       </c>
       <c r="F47" s="40">
-        <v>0.8935483870967742</v>
+        <v>0.85055214723926376</v>
       </c>
       <c r="J47" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="K47" s="89" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="M47" s="80">
-        <v>999</v>
-      </c>
-      <c r="N47" s="83" t="s">
-        <v>102</v>
+        <v>116</v>
+      </c>
+      <c r="K47" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="M47" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="N47" s="77" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="35" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D48" s="6">
-        <v>11819</v>
+        <v>12025</v>
       </c>
       <c r="E48" s="3">
-        <v>10614</v>
+        <v>11002</v>
       </c>
       <c r="F48" s="40">
-        <v>0.8980455199255436</v>
+        <v>0.91492723492723493</v>
       </c>
       <c r="J48" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="K48" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="L48" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="M48" s="79" t="s">
-        <v>107</v>
-      </c>
-      <c r="N48" s="83" t="s">
-        <v>108</v>
+        <v>122</v>
+      </c>
+      <c r="K48" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="M48" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="N48" s="77" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="35" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D49" s="6">
-        <v>9596</v>
+        <v>10356</v>
       </c>
       <c r="E49" s="3">
-        <v>8352</v>
+        <v>9309</v>
       </c>
       <c r="F49" s="40">
-        <v>0.87036265110462696</v>
+        <v>0.89889918887601394</v>
       </c>
       <c r="J49" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="K49" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="L49" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="M49" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="N49" s="83" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="K49" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="L49" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="M49" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="N49" s="77" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D50" s="6">
-        <v>2586</v>
+        <v>3217</v>
       </c>
       <c r="E50" s="3">
-        <v>2478</v>
+        <v>3001</v>
       </c>
       <c r="F50" s="40">
-        <v>0.95823665893271459</v>
+        <v>0.9328566987876904</v>
       </c>
       <c r="J50" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="L50" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="M50" s="80">
-        <v>302</v>
-      </c>
-      <c r="N50" s="83" t="s">
-        <v>119</v>
+        <v>134</v>
+      </c>
+      <c r="K50" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="L50" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="M50" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="N50" s="77" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="37" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="8"/>
       <c r="F51" s="41"/>
       <c r="J51" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="K51" s="90"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="84"/>
+        <v>140</v>
+      </c>
+      <c r="K51" s="84"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="78"/>
     </row>
     <row r="52" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="22"/>
@@ -5496,64 +5541,64 @@
     <row r="53" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="22"/>
       <c r="D53" s="19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="33" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D54" s="4">
-        <v>19493</v>
+        <v>7782</v>
       </c>
       <c r="E54" s="5">
-        <v>19437</v>
+        <v>7720</v>
       </c>
       <c r="F54" s="42">
-        <v>0.99712717385728211</v>
+        <v>0.99203289642765358</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="35" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D55" s="6">
-        <v>26552</v>
+        <v>22090</v>
       </c>
       <c r="E55" s="3">
-        <v>26373</v>
+        <v>22013</v>
       </c>
       <c r="F55" s="42">
-        <v>0.99325851159987943</v>
+        <v>0.99651425984608422</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="37" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D56" s="7">
-        <v>35518</v>
+        <v>32202</v>
       </c>
       <c r="E56" s="8">
-        <v>35455</v>
+        <v>32154</v>
       </c>
       <c r="F56" s="43">
-        <v>0.99822625147812372</v>
+        <v>0.99850940935345633</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5562,47 +5607,47 @@
     <row r="58" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="22"/>
       <c r="D58" s="19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="33" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D59" s="4">
-        <v>20089</v>
+        <v>16672</v>
       </c>
       <c r="E59" s="5">
-        <v>19528</v>
+        <v>16175</v>
       </c>
       <c r="F59" s="39">
-        <v>0.97207426950072173</v>
+        <v>0.97018953934740881</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="37" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D60" s="7">
-        <v>10505</v>
+        <v>7583</v>
       </c>
       <c r="E60" s="8">
-        <v>9735</v>
+        <v>7130</v>
       </c>
       <c r="F60" s="41">
-        <v>0.92670157068062831</v>
+        <v>0.94026111037847815</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5611,81 +5656,81 @@
     <row r="62" spans="2:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="22"/>
       <c r="D62" s="19" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="33" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D63" s="4">
-        <v>7436</v>
+        <v>6109</v>
       </c>
       <c r="E63" s="5">
-        <v>7046</v>
+        <v>5803</v>
       </c>
       <c r="F63" s="39">
-        <v>0.94755244755244761</v>
+        <v>0.94990996889834667</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="35" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C64" s="36" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D64" s="6">
-        <v>8851</v>
+        <v>7120</v>
       </c>
       <c r="E64" s="3">
-        <v>8076</v>
+        <v>6322</v>
       </c>
       <c r="F64" s="40">
-        <v>0.91243927239859901</v>
+        <v>0.88792134831460678</v>
       </c>
     </row>
     <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="35" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D65" s="6">
-        <v>7555</v>
+        <v>5743</v>
       </c>
       <c r="E65" s="3">
-        <v>6732</v>
+        <v>5082</v>
       </c>
       <c r="F65" s="44">
-        <v>0.89106551952349433</v>
+        <v>0.88490336061292008</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="37" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="D66" s="7">
-        <v>8254</v>
+        <v>5957</v>
       </c>
       <c r="E66" s="8">
-        <v>7155</v>
+        <v>5198</v>
       </c>
       <c r="F66" s="41">
-        <v>0.86685243518294164</v>
+        <v>0.87258687258687262</v>
       </c>
     </row>
   </sheetData>
@@ -5698,7 +5743,6 @@
     <mergeCell ref="G13:G16"/>
     <mergeCell ref="B17:B18"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="F23:F27">
     <cfRule type="cellIs" dxfId="104" priority="103" operator="between">
       <formula>0.9</formula>
@@ -6155,7 +6199,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>